--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_1_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_1_11.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>376546.9572276621</v>
+        <v>373308.7577998815</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2629876.587221764</v>
+        <v>2114249.189782368</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19997574.02179435</v>
+        <v>19492207.60956401</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4901774.857294663</v>
+        <v>5117112.456859928</v>
       </c>
     </row>
     <row r="11">
@@ -701,19 +703,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U2" t="n">
-        <v>24.87477961344436</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -741,22 +743,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>39.58387696184059</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -804,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -832,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>24.5704967621155</v>
+        <v>22.65313100102799</v>
       </c>
       <c r="I4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -856,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -905,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>39.58387696184059</v>
+        <v>16.93162886246722</v>
       </c>
       <c r="I5" t="n">
-        <v>34.86547882798917</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -972,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -990,13 +992,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>38.12502610536669</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1038,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1069,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>24.5704967621155</v>
+        <v>22.65313100102799</v>
       </c>
       <c r="I7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1093,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1175,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U8" t="n">
-        <v>34.86547882798917</v>
+        <v>28.88091821707973</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1218,16 +1220,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>34.86547882798917</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H9" t="n">
-        <v>39.58387696184059</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1330,19 +1332,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="Q10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T10" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1412,28 +1414,28 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>28.88091821707973</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1528,13 +1530,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>42.20118209180435</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1585,16 +1587,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,19 +1609,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>34.86547882798917</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1628,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1649,10 +1651,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>16.93162886246722</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1686,28 +1688,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F15" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1807,16 +1809,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S16" t="n">
-        <v>39.58387696184059</v>
+        <v>42.20118209180435</v>
       </c>
       <c r="T16" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1853,19 +1855,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,22 +1888,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1932,16 +1934,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1968,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>38.12502610536668</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>44.13217237922859</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>44.13217237922859</v>
+        <v>178.6958490491743</v>
       </c>
       <c r="U18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2011,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2068,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>44.13217237922859</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>234.288905720311</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2123,19 +2125,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2144,10 +2146,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="21">
@@ -2157,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2166,22 +2168,22 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>68.43462942837229</v>
       </c>
       <c r="H21" t="n">
-        <v>105.1447295463818</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2296,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2324,67 +2326,67 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H23" t="n">
-        <v>3.26531605719669</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="24">
@@ -2394,31 +2396,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>97.76646051984092</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>21.0507685937734</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,16 +2444,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2460,10 +2462,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2482,46 +2484,46 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2564,19 +2566,19 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2597,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -2609,10 +2611,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>100.3796369526212</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2631,16 +2633,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>147.7678266971394</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>151.8553303878933</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2652,10 +2654,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,19 +2681,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2700,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2722,55 +2724,55 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2798,16 +2800,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2834,25 +2836,25 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2868,28 +2870,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>3.343063205356696</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -2931,13 +2933,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3007,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3044,58 +3046,58 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="W32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R32" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S32" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T32" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U32" t="n">
-        <v>90.38893773807641</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="33">
@@ -3105,22 +3107,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>123.054562837252</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3129,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3159,22 +3161,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>34.66067414728059</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3205,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3244,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3269,11 +3271,11 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="E35" t="n">
         <v>212.2853856434421</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
@@ -3326,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>241.0142888776591</v>
@@ -3342,10 +3344,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>16.16726461546774</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3354,13 +3356,13 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>55.32415054247428</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3390,28 +3392,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3466,13 +3468,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3487,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3509,11 +3511,11 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F38" t="n">
-        <v>212.2853856434421</v>
-      </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
@@ -3545,13 +3547,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3579,16 +3581,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3600,10 +3602,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>61.68827609322837</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3636,16 +3638,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>90.8316949233748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3718,13 +3720,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3752,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>208.2792470398066</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3794,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V41" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="42">
@@ -3819,7 +3821,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>137.3121834293393</v>
+        <v>76.87103742556135</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3828,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3864,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3879,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3977,10 +3979,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -4019,19 +4021,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>39.58387696184059</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="45">
@@ -4062,7 +4064,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4110,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>39.58387696184059</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>39.58387696184059</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>34.86547882798917</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="46">
@@ -4144,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4183,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L2" t="n">
-        <v>81.54278654139161</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M2" t="n">
-        <v>119.1474696551402</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N2" t="n">
-        <v>158.3355078473624</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>148.2438924791353</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R2" t="n">
-        <v>108.260178376266</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S2" t="n">
-        <v>68.2764642733967</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T2" t="n">
-        <v>28.29275017052741</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="U2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C3" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D3" t="n">
-        <v>83.13413836268582</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E3" t="n">
-        <v>43.15042425981653</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="F3" t="n">
-        <v>3.166710156947247</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="G3" t="n">
-        <v>3.166710156947247</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="H3" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L3" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M3" t="n">
-        <v>42.35474834916943</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N3" t="n">
-        <v>42.35474834916943</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O3" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P3" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y3" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C4" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D4" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E4" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F4" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="G4" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="H4" t="n">
-        <v>105.6285745504463</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="I4" t="n">
-        <v>65.64486044757699</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J4" t="n">
-        <v>25.66114634470771</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q4" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R4" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S4" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T4" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U4" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V4" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W4" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X4" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y4" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>158.3355078473624</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="C5" t="n">
-        <v>158.3355078473624</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="D5" t="n">
-        <v>158.3355078473624</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="E5" t="n">
-        <v>158.3355078473624</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="F5" t="n">
-        <v>118.3517937444931</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="G5" t="n">
-        <v>78.36807964162378</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="H5" t="n">
-        <v>38.38436553875449</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="I5" t="n">
-        <v>3.166710156947247</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="J5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L5" t="n">
-        <v>3.166710156947247</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M5" t="n">
-        <v>42.35474834916943</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N5" t="n">
-        <v>81.54278654139161</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O5" t="n">
-        <v>120.7308247336138</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R5" t="n">
-        <v>158.3355078473624</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S5" t="n">
-        <v>158.3355078473624</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="T5" t="n">
-        <v>158.3355078473624</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="U5" t="n">
-        <v>158.3355078473624</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="V5" t="n">
-        <v>158.3355078473624</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="W5" t="n">
-        <v>158.3355078473624</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="X5" t="n">
-        <v>158.3355078473624</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="Y5" t="n">
-        <v>158.3355078473624</v>
+        <v>77.28117035226589</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>43.15042425981653</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="C6" t="n">
-        <v>3.166710156947247</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="D6" t="n">
-        <v>3.166710156947247</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="E6" t="n">
-        <v>3.166710156947247</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="F6" t="n">
-        <v>3.166710156947247</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="G6" t="n">
-        <v>3.166710156947247</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="H6" t="n">
-        <v>3.166710156947247</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="I6" t="n">
-        <v>3.166710156947247</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L6" t="n">
-        <v>40.77139327069581</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M6" t="n">
-        <v>40.77139327069581</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N6" t="n">
-        <v>40.77139327069581</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="O6" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P6" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S6" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T6" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="U6" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="V6" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="W6" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="X6" t="n">
-        <v>118.3517937444931</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="Y6" t="n">
-        <v>78.36807964162378</v>
+        <v>87.37278572049297</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C7" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D7" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E7" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F7" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="G7" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="H7" t="n">
-        <v>105.6285745504463</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="I7" t="n">
-        <v>65.64486044757699</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J7" t="n">
-        <v>25.66114634470771</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q7" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R7" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S7" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T7" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U7" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V7" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W7" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X7" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y7" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>40.77139327069581</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L8" t="n">
-        <v>79.95943146291799</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M8" t="n">
-        <v>79.95943146291799</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N8" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O8" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R8" t="n">
-        <v>118.3517937444931</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S8" t="n">
-        <v>78.36807964162378</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="T8" t="n">
-        <v>38.38436553875449</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="U8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E9" t="n">
-        <v>123.1178524655551</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="F9" t="n">
-        <v>83.13413836268582</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="G9" t="n">
-        <v>43.15042425981653</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="H9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L9" t="n">
-        <v>3.166710156947247</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M9" t="n">
-        <v>40.77139327069581</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N9" t="n">
-        <v>79.95943146291799</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O9" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P9" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>130.4472581485427</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="Q10" t="n">
-        <v>90.46354404567346</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="R10" t="n">
-        <v>50.47982994280417</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="S10" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="T10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="U10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K11" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L11" t="n">
-        <v>81.54278654139161</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M11" t="n">
-        <v>119.1474696551402</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N11" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O11" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q11" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R11" t="n">
-        <v>123.1178524655551</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S11" t="n">
-        <v>83.13413836268582</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="T11" t="n">
-        <v>43.15042425981653</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="U11" t="n">
-        <v>3.166710156947247</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="V11" t="n">
-        <v>3.166710156947247</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="W11" t="n">
-        <v>3.166710156947247</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="X11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="C12" t="n">
-        <v>118.3517937444931</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="D12" t="n">
-        <v>118.3517937444931</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E12" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F12" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G12" t="n">
-        <v>78.36807964162378</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H12" t="n">
-        <v>38.38436553875449</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K12" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L12" t="n">
-        <v>81.54278654139161</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M12" t="n">
-        <v>119.1474696551402</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="N12" t="n">
-        <v>119.1474696551402</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="O12" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P12" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S12" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T12" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U12" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V12" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W12" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X12" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y12" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.166710156947247</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="C13" t="n">
-        <v>3.166710156947247</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="D13" t="n">
-        <v>3.166710156947247</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="E13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L13" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M13" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N13" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P13" t="n">
-        <v>130.4472581485427</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q13" t="n">
-        <v>130.4472581485427</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="R13" t="n">
-        <v>130.4472581485427</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="S13" t="n">
-        <v>90.46354404567346</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="T13" t="n">
-        <v>90.46354404567346</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="U13" t="n">
-        <v>90.46354404567346</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="V13" t="n">
-        <v>50.47982994280417</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="W13" t="n">
-        <v>50.47982994280417</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="X13" t="n">
-        <v>10.49611583993489</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.166710156947247</v>
+        <v>135.3139342451479</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>158.3355078473624</v>
+        <v>149.3344187320537</v>
       </c>
       <c r="C14" t="n">
-        <v>123.1178524655551</v>
+        <v>104.756466833843</v>
       </c>
       <c r="D14" t="n">
-        <v>83.13413836268582</v>
+        <v>104.756466833843</v>
       </c>
       <c r="E14" t="n">
-        <v>43.15042425981653</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="F14" t="n">
-        <v>3.166710156947247</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="G14" t="n">
-        <v>3.166710156947247</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="H14" t="n">
-        <v>3.166710156947247</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="I14" t="n">
-        <v>3.166710156947247</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="J14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K14" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L14" t="n">
-        <v>81.54278654139161</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M14" t="n">
-        <v>119.1474696551402</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N14" t="n">
-        <v>119.1474696551402</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O14" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q14" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R14" t="n">
-        <v>158.3355078473624</v>
+        <v>149.3344187320537</v>
       </c>
       <c r="S14" t="n">
-        <v>158.3355078473624</v>
+        <v>149.3344187320537</v>
       </c>
       <c r="T14" t="n">
-        <v>158.3355078473624</v>
+        <v>149.3344187320537</v>
       </c>
       <c r="U14" t="n">
-        <v>158.3355078473624</v>
+        <v>149.3344187320537</v>
       </c>
       <c r="V14" t="n">
-        <v>158.3355078473624</v>
+        <v>149.3344187320537</v>
       </c>
       <c r="W14" t="n">
-        <v>158.3355078473624</v>
+        <v>149.3344187320537</v>
       </c>
       <c r="X14" t="n">
-        <v>158.3355078473624</v>
+        <v>149.3344187320537</v>
       </c>
       <c r="Y14" t="n">
-        <v>158.3355078473624</v>
+        <v>149.3344187320537</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C15" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="D15" t="n">
-        <v>158.3355078473624</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="E15" t="n">
-        <v>158.3355078473624</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F15" t="n">
-        <v>123.8719851183408</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G15" t="n">
-        <v>83.88827101547153</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H15" t="n">
-        <v>43.90455691260225</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I15" t="n">
-        <v>3.920842809732961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K15" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L15" t="n">
-        <v>81.54278654139161</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M15" t="n">
-        <v>81.54278654139161</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N15" t="n">
-        <v>81.54278654139161</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O15" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L16" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M16" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N16" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P16" t="n">
-        <v>130.4472581485427</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.46354404567346</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="R16" t="n">
-        <v>50.47982994280417</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="S16" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="T16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="U16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>176.5286895169144</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C17" t="n">
-        <v>176.5286895169144</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D17" t="n">
-        <v>176.5286895169144</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E17" t="n">
-        <v>176.5286895169144</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F17" t="n">
-        <v>137.2644294849704</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G17" t="n">
-        <v>92.68647758675968</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H17" t="n">
-        <v>48.10852568854899</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I17" t="n">
-        <v>3.530573790338288</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K17" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L17" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M17" t="n">
-        <v>132.8378388614781</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N17" t="n">
-        <v>176.5286895169144</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O17" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>176.5286895169144</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>176.5286895169144</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>176.5286895169144</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V17" t="n">
-        <v>176.5286895169144</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="W17" t="n">
-        <v>176.5286895169144</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X17" t="n">
-        <v>176.5286895169144</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y17" t="n">
-        <v>176.5286895169144</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.284706443124001</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="C18" t="n">
-        <v>4.284706443124001</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="D18" t="n">
-        <v>4.284706443124001</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="E18" t="n">
-        <v>4.284706443124001</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F18" t="n">
-        <v>4.284706443124001</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>4.284706443124001</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>4.284706443124001</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
-        <v>4.284706443124001</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>47.22142444577459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>90.91227510121089</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>134.6031257566472</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N18" t="n">
-        <v>176.5286895169144</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>176.5286895169144</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>138.0185621377561</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>93.44061023954541</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>48.8626583413347</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="U18" t="n">
-        <v>4.284706443124001</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="V18" t="n">
-        <v>4.284706443124001</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="W18" t="n">
-        <v>4.284706443124001</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="X18" t="n">
-        <v>4.284706443124001</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.284706443124001</v>
+        <v>508.9694238887622</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L19" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M19" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N19" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U20" t="n">
-        <v>720.6083788665362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V20" t="n">
-        <v>720.6083788665362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W20" t="n">
-        <v>477.1596022224361</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="X20" t="n">
-        <v>233.7108255783361</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>255.9366034337592</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>284.725395637266</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="C21" t="n">
-        <v>284.725395637266</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="D21" t="n">
-        <v>284.725395637266</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="E21" t="n">
-        <v>125.4879406318105</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="F21" t="n">
-        <v>125.4879406318105</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="G21" t="n">
-        <v>125.4879406318105</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5835,46 +5837,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>178.8501590306595</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>417.4543050195419</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>656.0584510084244</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O21" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>660.701031422288</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>660.701031422288</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W21" t="n">
-        <v>660.701031422288</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X21" t="n">
-        <v>660.701031422288</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="Y21" t="n">
-        <v>452.9407326573341</v>
+        <v>292.8299288097498</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>752.9257720901863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>752.9257720901863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>752.9257720901863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>509.4769954460863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>266.0282188019862</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6014,25 +6016,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X23" t="n">
-        <v>752.9257720901863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>752.9257720901863</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6072,16 +6074,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M24" t="n">
-        <v>486.8488635328713</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N24" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6090,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U24" t="n">
-        <v>533.6469426057913</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V24" t="n">
-        <v>533.6469426057913</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W24" t="n">
-        <v>533.6469426057913</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X24" t="n">
-        <v>325.7954424002585</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y24" t="n">
-        <v>118.0351436353046</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="25">
@@ -6121,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
         <v>19.28114311021272</v>
@@ -6169,28 +6171,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.35113235729608</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="C26" t="n">
-        <v>31.35113235729608</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="D26" t="n">
-        <v>31.35113235729608</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="E26" t="n">
-        <v>31.35113235729608</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="F26" t="n">
-        <v>31.35113235729608</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="G26" t="n">
-        <v>31.35113235729608</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="H26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>601.5428246748836</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T26" t="n">
-        <v>376.1934816808115</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U26" t="n">
-        <v>132.7447050367114</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V26" t="n">
-        <v>31.35113235729608</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W26" t="n">
-        <v>31.35113235729608</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="X26" t="n">
-        <v>31.35113235729608</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.35113235729608</v>
+        <v>517.4848137278872</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>461.2466632505798</v>
+        <v>371.8843175067282</v>
       </c>
       <c r="C27" t="n">
-        <v>286.7936339694528</v>
+        <v>371.8843175067282</v>
       </c>
       <c r="D27" t="n">
-        <v>286.7936339694528</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="E27" t="n">
-        <v>133.4044113554191</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="F27" t="n">
-        <v>133.4044113554191</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="G27" t="n">
-        <v>133.4044113554191</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>851.8101010141643</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>461.2466632505798</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>461.2466632505798</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W27" t="n">
-        <v>461.2466632505798</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X27" t="n">
-        <v>461.2466632505798</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y27" t="n">
-        <v>461.2466632505798</v>
+        <v>521.1447485139397</v>
       </c>
     </row>
     <row r="28">
@@ -6358,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
         <v>19.28114311021272</v>
@@ -6418,16 +6420,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>233.7108255783361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C29" t="n">
-        <v>233.7108255783361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D29" t="n">
-        <v>233.7108255783361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V29" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W29" t="n">
-        <v>233.7108255783361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X29" t="n">
-        <v>233.7108255783361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y29" t="n">
-        <v>233.7108255783361</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>964.0571555106362</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="C30" t="n">
-        <v>817.1412885554689</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="D30" t="n">
-        <v>668.2068788942177</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="E30" t="n">
-        <v>508.9694238887622</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="F30" t="n">
-        <v>362.4348659156472</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="G30" t="n">
-        <v>223.7040404982626</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>23.41210728356076</v>
       </c>
       <c r="I30" t="n">
         <v>20.03527576299844</v>
@@ -6546,16 +6548,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N30" t="n">
-        <v>656.0584510084244</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O30" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
         <v>894.6625969973069</v>
@@ -6579,13 +6581,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W30" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X30" t="n">
-        <v>964.0571555106362</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y30" t="n">
-        <v>964.0571555106362</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C32" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>274.7999090013961</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>274.7999090013961</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W32" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>20.03527576299844</v>
+        <v>588.0815197256143</v>
       </c>
       <c r="C33" t="n">
-        <v>20.03527576299844</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="D33" t="n">
-        <v>20.03527576299844</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6786,13 +6788,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>417.4543050195419</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N33" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
         <v>894.6625969973069</v>
@@ -6807,22 +6809,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>298.4948343740486</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W33" t="n">
-        <v>55.04605772994853</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X33" t="n">
-        <v>20.03527576299844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y33" t="n">
-        <v>20.03527576299844</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="C35" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="D35" t="n">
         <v>233.7108255783361</v>
-      </c>
-      <c r="C35" t="n">
-        <v>233.7108255783361</v>
-      </c>
-      <c r="D35" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
         <v>19.28114311021272</v>
@@ -6974,13 +6976,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="X35" t="n">
         <v>720.6083788665362</v>
       </c>
-      <c r="X35" t="n">
+      <c r="Y35" t="n">
         <v>477.1596022224361</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>35.61171342886701</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H36" t="n">
         <v>19.28114311021272</v>
@@ -7020,46 +7022,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>486.8488635328713</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U36" t="n">
-        <v>862.8876260635219</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V36" t="n">
-        <v>862.8876260635219</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W36" t="n">
-        <v>619.4388494194218</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="X36" t="n">
-        <v>411.587349213889</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="Y36" t="n">
-        <v>203.827050448935</v>
+        <v>327.2640844659515</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C38" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>82.34666575615842</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="C39" t="n">
-        <v>82.34666575615842</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D39" t="n">
-        <v>82.34666575615842</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E39" t="n">
-        <v>82.34666575615842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>82.34666575615842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>82.34666575615842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>82.34666575615842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7257,19 +7259,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M39" t="n">
-        <v>473.4149733950735</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7284,19 +7286,19 @@
         <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>533.6469426057913</v>
+        <v>670.1213740781145</v>
       </c>
       <c r="V39" t="n">
-        <v>533.6469426057913</v>
+        <v>670.1213740781145</v>
       </c>
       <c r="W39" t="n">
-        <v>290.1981659616912</v>
+        <v>670.1213740781145</v>
       </c>
       <c r="X39" t="n">
-        <v>82.34666575615842</v>
+        <v>670.1213740781145</v>
       </c>
       <c r="Y39" t="n">
-        <v>82.34666575615842</v>
+        <v>670.1213740781145</v>
       </c>
     </row>
     <row r="40">
@@ -7366,10 +7368,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
         <v>829.5248650203655</v>
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>229.3003572948082</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C41" t="n">
-        <v>229.3003572948082</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>229.3003572948082</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>229.3003572948082</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>229.3003572948082</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>121.932285387744</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L41" t="n">
-        <v>302.0081369724026</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>501.1544461991459</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>707.0089684063852</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>856.2039185490332</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>707.0094349923255</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V41" t="n">
-        <v>468.1548961435668</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W41" t="n">
-        <v>229.3003572948082</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X41" t="n">
-        <v>229.3003572948082</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y41" t="n">
-        <v>229.3003572948082</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>157.6164546579724</v>
+        <v>243.4632136343998</v>
       </c>
       <c r="C42" t="n">
-        <v>18.91727947682168</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D42" t="n">
-        <v>18.91727947682168</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E42" t="n">
-        <v>18.91727947682168</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>225.6232706630674</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>459.7246041887357</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
-        <v>693.8259377144041</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>693.8259377144041</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>876.4694153277549</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>945.8639738410842</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>772.4466292917531</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T42" t="n">
-        <v>772.4466292917531</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U42" t="n">
-        <v>772.4466292917531</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V42" t="n">
-        <v>772.4466292917531</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W42" t="n">
-        <v>533.5920904429944</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X42" t="n">
-        <v>533.5920904429944</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="Y42" t="n">
-        <v>325.8317916780405</v>
+        <v>411.6785506544679</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>46.23140448453466</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>85.41944267675684</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>129.1102933321932</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>18.91727947682168</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3.166710156947247</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C44" t="n">
-        <v>3.166710156947247</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>42.35474834916943</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>81.54278654139161</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>119.1474696551402</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>119.1474696551402</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>119.1474696551402</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>158.3355078473624</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>123.1178524655551</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>83.13413836268582</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T44" t="n">
-        <v>43.15042425981653</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U44" t="n">
-        <v>3.166710156947247</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V44" t="n">
-        <v>3.166710156947247</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W44" t="n">
-        <v>3.166710156947247</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X44" t="n">
-        <v>3.166710156947247</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y44" t="n">
-        <v>3.166710156947247</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>43.15042425981653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>43.15042425981653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>43.15042425981653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>3.166710156947247</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>42.35474834916943</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>81.54278654139161</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N45" t="n">
-        <v>119.1474696551402</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>119.1474696551402</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>119.1474696551402</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>118.3517937444931</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>78.36807964162378</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W45" t="n">
-        <v>43.15042425981653</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X45" t="n">
-        <v>43.15042425981653</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y45" t="n">
-        <v>43.15042425981653</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3.166710156947247</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>3.166710156947247</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>3.166710156947247</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>3.166710156947247</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>30.48083516466022</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>69.6688733568824</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>108.8569115491046</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>123.1178524655551</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>83.13413836268582</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>43.15042425981653</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>43.15042425981653</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>3.166710156947247</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>3.166710156947247</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>3.166710156947247</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7979,19 +7981,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M2" t="n">
-        <v>268.3307616249986</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N2" t="n">
-        <v>268.9969405584315</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P2" t="n">
         <v>231.2329957552695</v>
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>177.4253159361996</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N3" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>180.5807728421703</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P3" t="n">
-        <v>173.5582843761708</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q3" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8146,7 +8148,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8216,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L5" t="n">
-        <v>235.7664149699872</v>
+        <v>278.1154692732874</v>
       </c>
       <c r="M5" t="n">
-        <v>269.9301101891133</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>268.9969405584315</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>269.6820883835273</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P5" t="n">
-        <v>269.2175241529953</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8298,22 +8300,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>176.5389081776</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>182.180121406285</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P6" t="n">
-        <v>173.5582843761708</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q6" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8383,7 +8385,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N7" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8453,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>258.0743794427063</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>275.3502919318278</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O8" t="n">
-        <v>269.6820883835273</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P8" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M9" t="n">
-        <v>180.1185623197441</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>170.9255890451739</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>182.180121406285</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q9" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8620,7 +8622,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N10" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8690,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>259.6737280068211</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L11" t="n">
-        <v>275.3502919318278</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M11" t="n">
-        <v>268.3307616249986</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O11" t="n">
-        <v>269.6820883835273</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>178.1382567417148</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>180.1185623197441</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q12" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8857,7 +8859,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N13" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8927,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M14" t="n">
-        <v>268.3307616249986</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N14" t="n">
-        <v>229.4130635965909</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O14" t="n">
-        <v>230.0982114216867</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P14" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,22 +9008,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>177.4253159361996</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L15" t="n">
-        <v>178.1382567417148</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O15" t="n">
-        <v>180.5807728421703</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>173.5582843761708</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9094,7 +9096,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N16" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
@@ -9164,22 +9166,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>272.6952875305729</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,22 +9245,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>181.9736113535876</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>186.2662063012469</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N18" t="n">
-        <v>173.6907663866335</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9483,7 +9485,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
@@ -9492,13 +9494,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,10 +9722,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M24" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
@@ -9732,7 +9734,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9954,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9966,13 +9968,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>185.8815939223662</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,19 +10196,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>301.2508595994748</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10434,16 +10436,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>312.0431814381598</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10586,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10668,10 +10670,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
@@ -10680,10 +10682,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10905,22 +10907,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M39" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11066,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>431.5041213350942</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11142,22 +11144,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>347.3483102710314</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>378.6000273822893</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>367.8077055436044</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>259.6737280068211</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>275.3502919318278</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>268.3307616249986</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>270.8168727171101</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>178.1382567417148</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>181.7179108838589</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>169.3262404810591</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>179.5656510478621</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11464,7 +11466,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O46" t="n">
         <v>163.0416663658825</v>
@@ -22589,19 +22591,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>110.2852409793091</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S2" t="n">
-        <v>169.4361926244048</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T2" t="n">
-        <v>183.5119726022908</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U2" t="n">
-        <v>226.4708732943921</v>
+        <v>212.474035476212</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22629,22 +22631,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>112.5795867366496</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>118.0612034935604</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>105.4853354315433</v>
+        <v>106.1975949617593</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -22692,7 +22694,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>166.0988188154638</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22720,13 +22722,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>137.6566757453241</v>
+        <v>139.5740415064116</v>
       </c>
       <c r="I4" t="n">
-        <v>115.8665979654177</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J4" t="n">
-        <v>53.77530315483219</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22744,7 +22746,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -22793,19 +22795,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>367.2921687798708</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>375.7188605532945</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>299.8909251539266</v>
+        <v>322.5431732532999</v>
       </c>
       <c r="I5" t="n">
-        <v>175.6104107424167</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,13 +22828,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22860,10 +22862,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>131.6677048218782</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>133.1246220264752</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22878,13 +22880,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>74.11041813112978</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,10 +22910,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -22926,10 +22928,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>166.1891082416369</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>166.0988188154638</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22957,13 +22959,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>137.6566757453241</v>
+        <v>139.5740415064116</v>
       </c>
       <c r="I7" t="n">
-        <v>115.8665979654177</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J7" t="n">
-        <v>53.77530315483219</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22981,7 +22983,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -23063,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>110.2852409793091</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S8" t="n">
-        <v>169.4361926244048</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T8" t="n">
-        <v>183.5119726022908</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U8" t="n">
-        <v>216.4801740798473</v>
+        <v>222.4647346907568</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23106,16 +23108,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>122.7796016274118</v>
+        <v>113.5129080761724</v>
       </c>
       <c r="F9" t="n">
-        <v>105.4853354315433</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G9" t="n">
-        <v>97.75964020137005</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H9" t="n">
-        <v>72.65156727465587</v>
+        <v>73.36382680487192</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -23218,19 +23220,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1.930990287424243</v>
       </c>
       <c r="Q10" t="n">
-        <v>46.5781662898538</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R10" t="n">
-        <v>137.7095144153289</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S10" t="n">
-        <v>184.4327210751317</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T10" t="n">
-        <v>220.6894778021237</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23300,28 +23302,28 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>115.0036391131605</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>211.7617759459959</v>
+        <v>207.2134805286079</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>283.6200860909063</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>305.1087963381844</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>340.8501824613893</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23334,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>122.4010112706387</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>128.5763266090871</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>108.5734481330142</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>113.5129080761724</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>54.53115402342591</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23382,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>60.57395719080255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23416,13 +23418,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>123.1146487193992</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>104.4833006389838</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>104.2327805547648</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23464,7 +23466,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>184.4327210751317</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23473,16 +23475,16 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
-        <v>212.5537663619874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>186.1257784271966</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>211.328541725937</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23495,19 +23497,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>330.4074129430184</v>
+        <v>321.1407193917789</v>
       </c>
       <c r="D14" t="n">
-        <v>315.0991646588424</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>342.3464931104212</v>
+        <v>337.7981976930332</v>
       </c>
       <c r="F14" t="n">
-        <v>367.2921687798708</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23516,7 +23518,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,10 +23539,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>132.9374890786825</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
@@ -23574,28 +23576,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>133.8368815566912</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>103.3128931854102</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>113.5129080761724</v>
       </c>
       <c r="F15" t="n">
-        <v>110.9503248916526</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>97.75964020137005</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H15" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23695,16 +23697,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.5781662898538</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R16" t="n">
-        <v>137.7095144153289</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S16" t="n">
-        <v>184.4327210751317</v>
+        <v>181.8154159451679</v>
       </c>
       <c r="T16" t="n">
-        <v>220.6894778021237</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23741,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>368.0044283100869</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>371.1705651359065</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,22 +23776,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>237.3633207320585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23820,16 +23822,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>62.03280804727645</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>127.5509987246092</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>156.032556315593</v>
+        <v>21.46887964564732</v>
       </c>
       <c r="U18" t="n">
-        <v>181.8092097017462</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23899,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>144.630597575249</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>167.9909793584588</v>
@@ -23908,7 +23910,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I19" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J19" t="n">
         <v>93.35918011667277</v>
@@ -23944,7 +23946,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>242.1868569772623</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23956,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>174.4524809728662</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="20">
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>148.4449359431696</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -24011,19 +24013,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24032,10 +24034,10 @@
         <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>173.9525530126115</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24045,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24054,22 +24056,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>68.90888773483834</v>
       </c>
       <c r="H21" t="n">
-        <v>7.090714690114623</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24184,10 +24186,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24212,16 +24214,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>336.2094860585705</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24254,7 +24256,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
@@ -24266,13 +24268,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24282,31 +24284,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>68.76672313002642</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>126.3942969708654</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24348,10 +24350,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24370,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24409,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24452,19 +24454,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>328.2817459595876</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,10 +24487,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -24497,10 +24499,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>227.3726215175137</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24519,16 +24521,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>18.76535695272793</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>5.789750067507612</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24540,10 +24542,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,19 +24569,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -24588,7 +24590,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24610,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.9909793584588</v>
@@ -24658,7 +24660,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24686,16 +24688,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24722,25 +24724,25 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24756,28 +24758,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>86.05356964605838</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24819,13 +24821,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24895,10 +24897,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24932,13 +24934,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,31 +24961,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>160.9567151697601</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24993,22 +24995,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>49.65393615106372</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25017,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25047,22 +25049,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>171.1123110561969</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25093,7 +25095,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J34" t="n">
         <v>93.35918011667277</v>
@@ -25132,7 +25134,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25157,10 +25159,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>142.3976559772408</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25214,7 +25216,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>128.71681180081</v>
@@ -25230,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>156.541234372848</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25242,13 +25244,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>89.74506185090959</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -25278,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25354,13 +25356,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>176.9916737032986</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25375,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25397,10 +25399,10 @@
         <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>194.5906600982693</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
@@ -25433,13 +25435,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>6.725383157348171</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -25467,16 +25469,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25488,10 +25490,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>27.7083567581867</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25524,16 +25526,16 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>135.1096871576</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25606,13 +25608,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25640,7 +25642,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>207.0234904753285</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25682,19 +25684,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>14.87965944756544</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
-        <v>91.28626500986385</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>112.774975257142</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="42">
@@ -25707,7 +25709,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>35.39631555897648</v>
+        <v>95.83746156275438</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25716,7 +25718,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
@@ -25752,10 +25754,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -25767,7 +25769,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>15.22898970064855</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25831,10 +25833,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25865,10 +25867,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25907,19 +25909,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>115.0036391131605</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>183.5119726022908</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U44" t="n">
-        <v>211.7617759459959</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25950,7 +25952,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>118.0612034935604</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25998,19 +26000,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>186.3575051191342</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>193.2167101875847</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>216.8295043329304</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="46">
@@ -26032,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26071,19 +26073,19 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>214.039045675708</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>188.3617124664409</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>246.7351523946503</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>246.9391213747504</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>355279.4796042946</v>
+        <v>358671.2447770133</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>355279.4796042946</v>
+        <v>358671.2447770133</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>355279.4796042946</v>
+        <v>358671.2447770134</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>355279.4796042946</v>
+        <v>358671.2447770131</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>355279.4796042948</v>
+        <v>358671.2447770134</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>358671.2447770131</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390694</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390694</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390694</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390694</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498541.5625390694</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>498541.5625390694</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>495310.3319091872</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>355279.4796042948</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>65132.53968261259</v>
+        <v>65754.15294315932</v>
       </c>
       <c r="C2" t="n">
-        <v>65132.53968261259</v>
+        <v>65754.15294315931</v>
       </c>
       <c r="D2" t="n">
-        <v>65132.5396826126</v>
+        <v>65754.15294315934</v>
       </c>
       <c r="E2" t="n">
-        <v>65132.53968261259</v>
+        <v>65754.15294315931</v>
       </c>
       <c r="F2" t="n">
-        <v>65132.53968261259</v>
+        <v>65754.15294315932</v>
       </c>
       <c r="G2" t="n">
-        <v>65754.15294315932</v>
+        <v>91388.36989223285</v>
       </c>
       <c r="H2" t="n">
         <v>91388.36989223279</v>
       </c>
       <c r="I2" t="n">
-        <v>91388.36989223283</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="J2" t="n">
+        <v>91388.36989223282</v>
+      </c>
+      <c r="K2" t="n">
+        <v>91388.36989223279</v>
+      </c>
+      <c r="L2" t="n">
         <v>91388.3698922328</v>
-      </c>
-      <c r="K2" t="n">
-        <v>91388.3698922328</v>
-      </c>
-      <c r="L2" t="n">
-        <v>91388.36989223285</v>
       </c>
       <c r="M2" t="n">
         <v>91388.36989223279</v>
       </c>
       <c r="N2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.36989223283</v>
       </c>
       <c r="O2" t="n">
-        <v>90796.17800832073</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="P2" t="n">
-        <v>65132.53968261261</v>
+        <v>91388.3698922328</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13265.46759908291</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1246.619549474791</v>
+        <v>53962.43490047232</v>
       </c>
       <c r="H3" t="n">
-        <v>53120.56697032503</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10356.88390380382</v>
+        <v>11546.91810999089</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47379.87821746379</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5965.632368449411</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="C4" t="n">
-        <v>5965.632368449411</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="D4" t="n">
-        <v>5965.632368449412</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="E4" t="n">
-        <v>5965.632368449412</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="F4" t="n">
-        <v>5965.63236844941</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="G4" t="n">
-        <v>6026.749513840838</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="H4" t="n">
-        <v>8547.111069342402</v>
+        <v>8547.111069342403</v>
       </c>
       <c r="I4" t="n">
         <v>8547.111069342402</v>
       </c>
       <c r="J4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="K4" t="n">
         <v>8547.111069342402</v>
@@ -26454,10 +26456,10 @@
         <v>8547.111069342402</v>
       </c>
       <c r="O4" t="n">
-        <v>8488.886639836433</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="P4" t="n">
-        <v>5965.632368449412</v>
+        <v>8547.111069342402</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="F5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="G5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="H5" t="n">
         <v>14653.66876376167</v>
@@ -26506,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>14377.13240238448</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>2406.699719279908</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9867.139995800353</v>
+        <v>8626.861344417164</v>
       </c>
       <c r="C6" t="n">
-        <v>23132.60759488327</v>
+        <v>23416.56734866137</v>
       </c>
       <c r="D6" t="n">
-        <v>23132.60759488328</v>
+        <v>23416.5673486614</v>
       </c>
       <c r="E6" t="n">
-        <v>56760.20759488328</v>
+        <v>57044.16734866137</v>
       </c>
       <c r="F6" t="n">
-        <v>56760.20759488328</v>
+        <v>57044.16734866138</v>
       </c>
       <c r="G6" t="n">
-        <v>55797.5477991866</v>
+        <v>14225.15515865646</v>
       </c>
       <c r="H6" t="n">
-        <v>15067.02308880369</v>
+        <v>68187.59005912872</v>
       </c>
       <c r="I6" t="n">
-        <v>68187.59005912876</v>
+        <v>68187.59005912874</v>
       </c>
       <c r="J6" t="n">
-        <v>57830.70615532492</v>
+        <v>56640.67194913786</v>
       </c>
       <c r="K6" t="n">
+        <v>68187.59005912872</v>
+      </c>
+      <c r="L6" t="n">
         <v>68187.59005912874</v>
-      </c>
-      <c r="L6" t="n">
-        <v>68187.59005912878</v>
       </c>
       <c r="M6" t="n">
         <v>68187.59005912872</v>
       </c>
       <c r="N6" t="n">
-        <v>68187.59005912875</v>
+        <v>68187.59005912876</v>
       </c>
       <c r="O6" t="n">
-        <v>67930.15896609981</v>
+        <v>20807.71184166495</v>
       </c>
       <c r="P6" t="n">
-        <v>56760.20759488329</v>
+        <v>68187.59005912874</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,31 +27026,31 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>44.13217237922859</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>196.8821164984305</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,19 +34701,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M2" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34866,7 +34868,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34936,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P5" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,22 +35020,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35103,7 +35105,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M9" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35340,7 +35342,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
         <v>24.58512791403967</v>
@@ -35410,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35577,7 +35579,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N13" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O13" t="n">
         <v>24.58512791403967</v>
@@ -35647,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M14" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="O15" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35814,7 +35816,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O16" t="n">
         <v>24.58512791403967</v>
@@ -35884,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L17" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>42.34905430330019</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>44.13217237922859</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N18" t="n">
-        <v>42.34905430330016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36203,7 +36205,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
@@ -36212,13 +36214,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36440,10 +36442,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M24" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
@@ -36452,7 +36454,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
@@ -36686,13 +36688,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>43.28534947792182</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36841,7 +36843,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N29" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O29" t="n">
         <v>150.7019698410586</v>
@@ -36914,19 +36916,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>169.9091475161415</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>70.09551364982758</v>
@@ -37154,16 +37156,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>169.9091475161415</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37388,10 +37390,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
@@ -37400,10 +37402,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37625,22 +37627,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M39" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,10 +37788,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>201.1578881078215</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37862,22 +37864,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>208.7939304911573</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>236.4659934602711</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>39.58387696184059</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>39.58387696184059</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>37.98452839772582</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>39.58387696184059</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>39.58387696184059</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>37.98452839772582</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>39.58387696184059</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38184,7 +38186,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N46" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O46" t="n">
         <v>24.58512791403967</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_1_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_1_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>373308.7577998815</v>
+        <v>267779.7902310982</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2114249.189782368</v>
+        <v>925399.3994514376</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19492207.60956401</v>
+        <v>18327015.93006067</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5117112.456859928</v>
+        <v>5764697.373081758</v>
       </c>
     </row>
     <row r="11">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>232.8330857361503</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -749,16 +749,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,16 +788,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -834,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>22.65313100102799</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -913,13 +913,13 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>16.93162886246722</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,19 +940,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -989,16 +989,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>79.32306705084065</v>
       </c>
       <c r="H6" t="n">
-        <v>38.12502610536669</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.13217237922859</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>44.13217237922859</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1071,16 +1071,16 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>22.65313100102799</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1177,28 +1177,28 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>28.88091821707973</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>44.13217237922859</v>
+        <v>121.67129183649</v>
       </c>
       <c r="F9" t="n">
-        <v>44.13217237922859</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>38.87161743162454</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1268,13 +1268,13 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1332,19 +1332,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1372,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1426,16 +1426,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>28.88091821707973</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1448,19 +1448,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>44.13217237922859</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>44.13217237922859</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>33.52910316901396</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1499,10 +1499,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1514,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1530,13 +1530,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>42.20118209180435</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1569,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,28 +1609,28 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>114.9581870864144</v>
       </c>
       <c r="G14" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1654,10 +1654,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>16.93162886246722</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1688,19 +1688,19 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1736,16 +1736,16 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>70.73885857389301</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1806,16 +1806,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>42.20118209180435</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -1900,10 +1900,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="V17" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1934,19 +1934,19 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>178.6958490491743</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>65.13060206523731</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>234.288905720311</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2171,19 +2171,19 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>111.7765806969846</v>
       </c>
       <c r="G21" t="n">
-        <v>68.43462942837229</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2216,16 +2216,16 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2323,13 +2323,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2402,25 +2402,25 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>21.0507685937734</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2444,25 +2444,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>124.906780124857</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2557,22 +2557,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H26" t="n">
-        <v>11.19305615617957</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2633,13 +2633,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>147.7678266971394</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2651,10 +2651,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2690,19 +2690,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="28">
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2794,70 +2794,70 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R29" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S29" t="n">
-        <v>52.42556848774752</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2891,10 +2891,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>3.343063205356696</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2921,25 +2921,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>210.2306193636042</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,22 +3107,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>123.054562837252</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3161,19 +3161,19 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>118.3634851578964</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3207,40 +3207,40 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3271,59 +3271,59 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>102.3382270926889</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R35" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S35" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T35" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E35" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3356,13 +3356,13 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>55.32415054247428</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3407,13 +3407,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="37">
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,76 +3502,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="Y38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>3.265316057196634</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,16 +3581,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3635,22 +3635,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>90.8316949233748</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="40">
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3720,10 +3720,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3784,16 +3784,16 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>241.0142888776591</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>76.87103742556135</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3830,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3875,19 +3875,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="43">
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3979,20 +3979,20 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D44" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
@@ -4021,16 +4021,16 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>202.2946864288972</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4124,7 +4124,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>29.79900896488263</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4146,58 +4146,58 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.530573790338288</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C2" t="n">
-        <v>3.530573790338288</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D2" t="n">
-        <v>3.530573790338288</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E2" t="n">
-        <v>3.530573790338288</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="F2" t="n">
-        <v>3.530573790338288</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G2" t="n">
-        <v>3.530573790338288</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H2" t="n">
-        <v>3.530573790338288</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K2" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L2" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M2" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N2" t="n">
-        <v>134.6031257566472</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O2" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P2" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>131.9507376187037</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>87.37278572049297</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>42.79483382228227</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>3.530573790338288</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>3.530573790338288</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>3.530573790338288</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>3.530573790338288</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.530573790338288</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>176.5286895169144</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="C3" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>137.2644294849704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>47.22142444577459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>47.22142444577459</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>89.14698820604177</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>89.14698820604177</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O3" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>176.5286895169144</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>176.5286895169144</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U3" t="n">
-        <v>176.5286895169144</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V3" t="n">
-        <v>176.5286895169144</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W3" t="n">
-        <v>176.5286895169144</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="X3" t="n">
-        <v>176.5286895169144</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="Y3" t="n">
-        <v>176.5286895169144</v>
+        <v>125.0774898247174</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>115.1809137745201</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77.28117035226589</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C5" t="n">
-        <v>77.28117035226589</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D5" t="n">
-        <v>77.28117035226589</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>77.28117035226589</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>77.28117035226589</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>77.28117035226589</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>60.17851493563234</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>89.14698820604177</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>89.14698820604177</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>89.14698820604177</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>166.4370741486873</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>121.8591222504766</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>77.28117035226589</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>77.28117035226589</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U5" t="n">
-        <v>77.28117035226589</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V5" t="n">
-        <v>77.28117035226589</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W5" t="n">
-        <v>77.28117035226589</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X5" t="n">
-        <v>77.28117035226589</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y5" t="n">
-        <v>77.28117035226589</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>87.37278572049297</v>
+        <v>273.858482543704</v>
       </c>
       <c r="C6" t="n">
-        <v>87.37278572049297</v>
+        <v>99.40545326257703</v>
       </c>
       <c r="D6" t="n">
-        <v>87.37278572049297</v>
+        <v>99.40545326257703</v>
       </c>
       <c r="E6" t="n">
-        <v>87.37278572049297</v>
+        <v>99.40545326257703</v>
       </c>
       <c r="F6" t="n">
-        <v>87.37278572049297</v>
+        <v>99.40545326257703</v>
       </c>
       <c r="G6" t="n">
-        <v>87.37278572049297</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>48.8626583413347</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>45.45613755060546</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N6" t="n">
-        <v>45.45613755060546</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O6" t="n">
-        <v>89.14698820604177</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P6" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>131.9507376187037</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>87.37278572049297</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>87.37278572049297</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U6" t="n">
-        <v>87.37278572049297</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V6" t="n">
-        <v>87.37278572049297</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W6" t="n">
-        <v>87.37278572049297</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X6" t="n">
-        <v>87.37278572049297</v>
+        <v>481.618781308658</v>
       </c>
       <c r="Y6" t="n">
-        <v>87.37278572049297</v>
+        <v>273.858482543704</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>115.1809137745201</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>3.530573790338288</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>45.45613755060546</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>89.14698820604177</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>166.4370741486873</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>121.8591222504766</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>77.28117035226589</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>32.70321845405519</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>3.530573790338288</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W8" t="n">
-        <v>3.530573790338288</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X8" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>176.5286895169144</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="C9" t="n">
-        <v>176.5286895169144</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="D9" t="n">
-        <v>176.5286895169144</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="E9" t="n">
-        <v>131.9507376187037</v>
+        <v>369.484465818592</v>
       </c>
       <c r="F9" t="n">
-        <v>87.37278572049297</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="G9" t="n">
-        <v>42.79483382228227</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H9" t="n">
-        <v>3.530573790338288</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>90.91227510121089</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>90.91227510121089</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>90.91227510121089</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>176.5286895169144</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>176.5286895169144</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W9" t="n">
-        <v>176.5286895169144</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X9" t="n">
-        <v>176.5286895169144</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="Y9" t="n">
-        <v>176.5286895169144</v>
+        <v>492.3847606029253</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>137.2644294849704</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>92.68647758675968</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>48.10852568854899</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.530573790338288</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C11" t="n">
-        <v>3.530573790338288</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D11" t="n">
-        <v>3.530573790338288</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E11" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F11" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>47.22142444577459</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>89.14698820604177</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>166.4370741486873</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>166.4370741486873</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T11" t="n">
-        <v>166.4370741486873</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U11" t="n">
-        <v>121.8591222504766</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V11" t="n">
-        <v>77.28117035226589</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W11" t="n">
-        <v>32.70321845405519</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X11" t="n">
-        <v>3.530573790338288</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.530573790338288</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>131.9507376187037</v>
+        <v>212.3863790944702</v>
       </c>
       <c r="C12" t="n">
-        <v>87.37278572049297</v>
+        <v>212.3863790944702</v>
       </c>
       <c r="D12" t="n">
-        <v>48.10852568854899</v>
+        <v>212.3863790944702</v>
       </c>
       <c r="E12" t="n">
-        <v>3.530573790338288</v>
+        <v>53.14892408901471</v>
       </c>
       <c r="F12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>3.530573790338288</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>3.530573790338288</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N12" t="n">
-        <v>45.45613755060546</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O12" t="n">
-        <v>89.14698820604177</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>176.5286895169144</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T12" t="n">
-        <v>176.5286895169144</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U12" t="n">
-        <v>176.5286895169144</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V12" t="n">
-        <v>176.5286895169144</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W12" t="n">
-        <v>176.5286895169144</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X12" t="n">
-        <v>176.5286895169144</v>
+        <v>380.6017161145382</v>
       </c>
       <c r="Y12" t="n">
-        <v>176.5286895169144</v>
+        <v>380.6017161145382</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>90.73598234693722</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>149.3344187320537</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C14" t="n">
-        <v>104.756466833843</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="D14" t="n">
-        <v>104.756466833843</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="E14" t="n">
-        <v>60.17851493563234</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="F14" t="n">
-        <v>60.17851493563234</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G14" t="n">
-        <v>15.60056303742164</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H14" t="n">
-        <v>15.60056303742164</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I14" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>134.6031257566472</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>149.3344187320537</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>149.3344187320537</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T14" t="n">
-        <v>149.3344187320537</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U14" t="n">
-        <v>149.3344187320537</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V14" t="n">
-        <v>149.3344187320537</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W14" t="n">
-        <v>149.3344187320537</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X14" t="n">
-        <v>149.3344187320537</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y14" t="n">
-        <v>149.3344187320537</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>137.2644294849704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>47.22142444577459</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>90.91227510121089</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N15" t="n">
-        <v>132.8378388614781</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
-        <v>132.8378388614781</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>176.5286895169144</v>
+        <v>892.6037630117544</v>
       </c>
       <c r="T15" t="n">
-        <v>176.5286895169144</v>
+        <v>690.4171683705204</v>
       </c>
       <c r="U15" t="n">
-        <v>176.5286895169144</v>
+        <v>462.1935501069094</v>
       </c>
       <c r="V15" t="n">
-        <v>176.5286895169144</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="W15" t="n">
-        <v>176.5286895169144</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X15" t="n">
-        <v>176.5286895169144</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y15" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.73598234693722</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C17" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D17" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V17" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W17" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X17" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5600,46 +5600,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>508.9694238887622</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>508.9694238887622</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V18" t="n">
-        <v>508.9694238887622</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W18" t="n">
-        <v>508.9694238887622</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X18" t="n">
-        <v>508.9694238887622</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y18" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5703,19 +5703,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
         <v>19.28114311021272</v>
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5779,25 +5779,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>742.8341567219593</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V20" t="n">
-        <v>742.8341567219593</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W20" t="n">
-        <v>499.3853800778592</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X20" t="n">
-        <v>499.3853800778592</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y20" t="n">
-        <v>255.9366034337592</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="21">
@@ -5807,43 +5807,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>292.8299288097498</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="C21" t="n">
-        <v>292.8299288097498</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="D21" t="n">
-        <v>292.8299288097498</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="E21" t="n">
-        <v>292.8299288097498</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="F21" t="n">
-        <v>292.8299288097498</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G21" t="n">
-        <v>223.7040404982626</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
         <v>781.4136778972854</v>
@@ -5855,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>735.8335372470253</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V21" t="n">
-        <v>500.6814290152826</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W21" t="n">
-        <v>500.6814290152826</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X21" t="n">
-        <v>292.8299288097498</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y21" t="n">
-        <v>292.8299288097498</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="22">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
         <v>19.28114311021272</v>
@@ -6034,7 +6034,7 @@
         <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>689.4702815141908</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>689.4702815141908</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6074,7 +6074,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>65.60123993063803</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
         <v>304.2053859195205</v>
@@ -6092,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>689.4702815141908</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U24" t="n">
-        <v>689.4702815141908</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V24" t="n">
-        <v>689.4702815141908</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W24" t="n">
-        <v>689.4702815141908</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X24" t="n">
-        <v>689.4702815141908</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y24" t="n">
-        <v>689.4702815141908</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F25" t="n">
         <v>19.28114311021272</v>
@@ -6171,28 +6171,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>517.4848137278872</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C26" t="n">
-        <v>517.4848137278872</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D26" t="n">
-        <v>517.4848137278872</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E26" t="n">
-        <v>517.4848137278872</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>274.0360370837871</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>30.58726043968704</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6253,25 +6253,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>517.4848137278872</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>517.4848137278872</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>517.4848137278872</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W26" t="n">
-        <v>517.4848137278872</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X26" t="n">
-        <v>517.4848137278872</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y26" t="n">
-        <v>517.4848137278872</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>371.8843175067282</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>371.8843175067282</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6308,19 +6308,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N27" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6338,19 +6338,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>728.9050472788936</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>728.9050472788936</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>728.9050472788936</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y27" t="n">
-        <v>521.1447485139397</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D28" t="n">
         <v>19.28114311021272</v>
@@ -6420,16 +6420,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C29" t="n">
-        <v>749.627473042513</v>
+        <v>251.810259228364</v>
       </c>
       <c r="D29" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X29" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y29" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>136.7812428759814</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="C30" t="n">
-        <v>136.7812428759814</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="D30" t="n">
-        <v>136.7812428759814</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E30" t="n">
-        <v>136.7812428759814</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F30" t="n">
-        <v>136.7812428759814</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G30" t="n">
-        <v>136.7812428759814</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H30" t="n">
-        <v>23.41210728356076</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6548,19 +6548,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6569,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V30" t="n">
-        <v>964.0571555106362</v>
+        <v>376.0990553467335</v>
       </c>
       <c r="W30" t="n">
-        <v>720.6083788665362</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="X30" t="n">
-        <v>512.7568786610034</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="Y30" t="n">
-        <v>304.9965798960495</v>
+        <v>132.6502787026334</v>
       </c>
     </row>
     <row r="31">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X32" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>588.0815197256143</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C33" t="n">
-        <v>463.7839815061678</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>463.7839815061678</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6782,22 +6782,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6809,22 +6809,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>844.4980795935692</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>844.4980795935692</v>
       </c>
       <c r="V33" t="n">
-        <v>964.0571555106362</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="W33" t="n">
-        <v>964.0571555106362</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="X33" t="n">
-        <v>964.0571555106362</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y33" t="n">
-        <v>756.2968567456824</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>477.1596022224361</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C35" t="n">
-        <v>477.1596022224361</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D35" t="n">
-        <v>233.7108255783361</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X35" t="n">
-        <v>720.6083788665362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y35" t="n">
-        <v>477.1596022224361</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>327.2640844659515</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>327.2640844659515</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>327.2640844659515</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>327.2640844659515</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
         <v>19.28114311021272</v>
@@ -7019,22 +7019,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>257.8852890990952</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N36" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7043,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>562.4161926976942</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>327.2640844659515</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>327.2640844659515</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X36" t="n">
-        <v>327.2640844659515</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y36" t="n">
-        <v>327.2640844659515</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>960.7588564629629</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>960.7588564629629</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="Y38" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>501.9060370580465</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C39" t="n">
-        <v>327.4530077769195</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D39" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7259,16 +7259,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7283,22 +7283,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>670.1213740781145</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>670.1213740781145</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>670.1213740781145</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>670.1213740781145</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y39" t="n">
-        <v>670.1213740781145</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>262.7299197543128</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="C41" t="n">
-        <v>19.28114311021272</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="I41" t="n">
         <v>19.28114311021272</v>
@@ -7432,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U41" t="n">
-        <v>720.6083788665362</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V41" t="n">
-        <v>720.6083788665362</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W41" t="n">
-        <v>720.6083788665362</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="X41" t="n">
-        <v>720.6083788665362</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="Y41" t="n">
-        <v>506.1786963984129</v>
+        <v>333.7844730889342</v>
       </c>
     </row>
     <row r="42">
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>243.4632136343998</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
         <v>19.28114311021272</v>
@@ -7493,13 +7493,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M42" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N42" t="n">
         <v>542.809531908403</v>
@@ -7514,28 +7514,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V42" t="n">
-        <v>862.8876260635219</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W42" t="n">
-        <v>619.4388494194218</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X42" t="n">
-        <v>619.4388494194218</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y42" t="n">
-        <v>411.6785506544679</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="43">
@@ -7596,16 +7596,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
         <v>19.28114311021272</v>
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
         <v>19.28114311021272</v>
@@ -7669,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T44" t="n">
-        <v>749.627473042513</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U44" t="n">
-        <v>749.627473042513</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V44" t="n">
-        <v>749.627473042513</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W44" t="n">
-        <v>749.627473042513</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X44" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y44" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N45" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7760,19 +7760,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>735.8335372470253</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V45" t="n">
-        <v>500.6814290152826</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W45" t="n">
-        <v>257.2326523711826</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X45" t="n">
-        <v>49.38115216564972</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
         <v>19.28114311021272</v>
@@ -7845,13 +7845,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>272.4472657249869</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>181.9736113535876</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>184.4830882253185</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>186.728416823673</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P3" t="n">
-        <v>178.1065797935588</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>278.1154692732874</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>184.4830882253185</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>178.1065797935588</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q6" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>272.6952875305729</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O9" t="n">
-        <v>184.9452987477446</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>178.1065797935588</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L11" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>271.7621178998911</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>173.6907663866335</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O12" t="n">
-        <v>186.728416823673</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>272.4472657249869</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,22 +9008,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>186.2662063012469</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>173.6907663866335</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9248,10 +9248,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,19 +9482,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O21" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9722,10 +9722,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
@@ -9956,22 +9956,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O27" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10196,22 +10196,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O30" t="n">
-        <v>360.302996258564</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>295.1552315763977</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10907,19 +10907,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11141,16 +11141,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N42" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11378,16 +11378,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>231.1529892133073</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22558,16 +22558,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>174.0429600055611</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22591,19 +22591,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8878972070167</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>178.9636771849028</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>212.474035476212</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22628,7 +22628,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>67.9701157409561</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22637,16 +22637,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>106.1975949617593</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>45.26446047218649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -22676,16 +22676,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -22722,16 +22722,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>139.5740415064116</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22755,7 +22755,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -22789,7 +22789,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22801,13 +22801,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>322.5431732532999</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,19 +22828,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8878972070167</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22865,7 +22865,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22877,16 +22877,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>58.02045011236999</v>
       </c>
       <c r="H6" t="n">
-        <v>74.11041813112978</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>45.26446047218649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,10 +22910,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>56.02566177341454</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>127.5509987246092</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -22928,10 +22928,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22959,16 +22959,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>139.5740415064116</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22995,7 +22995,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23023,7 +23023,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23065,28 +23065,28 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8878972070167</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>178.9636771849028</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>222.4647346907568</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23108,19 +23108,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>113.5129080761724</v>
+        <v>35.97378861891097</v>
       </c>
       <c r="F9" t="n">
-        <v>100.9370400141553</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>73.36382680487192</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23156,13 +23156,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23220,19 +23220,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.930990287424243</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23260,19 +23260,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>329.5048015845142</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23314,16 +23314,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>207.2134805286079</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>283.6200860909063</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>305.1087963381844</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>340.8501824613893</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23336,19 +23336,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>122.4010112706387</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>128.5763266090871</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>108.5734481330142</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>113.5129080761724</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>111.5401092243699</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
@@ -23387,10 +23387,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
@@ -23402,7 +23402,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23418,13 +23418,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>123.1146487193992</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>104.4833006389838</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>104.2327805547648</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23457,7 +23457,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
         <v>86.16204325169439</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,28 +23497,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>321.1407193917789</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>337.7981976930332</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>291.917858655297</v>
       </c>
       <c r="G14" t="n">
-        <v>371.1705651359065</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23542,10 +23542,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>132.9374890786825</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -23576,19 +23576,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>133.8368815566912</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>103.3128931854102</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>113.5129080761724</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -23624,16 +23624,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>100.9443125299448</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23642,7 +23642,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23694,16 +23694,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>181.8154159451679</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23746,7 +23746,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
@@ -23755,7 +23755,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -23788,10 +23788,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>139.0167266006028</v>
       </c>
       <c r="V17" t="n">
-        <v>237.3633207320585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23822,19 +23822,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>21.46887964564732</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>186.5643810956823</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23943,7 +23943,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>148.4449359431696</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>204.5813593128142</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24019,25 +24019,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24059,19 +24059,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>33.29263169639931</v>
       </c>
       <c r="G21" t="n">
-        <v>68.90888773483834</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24104,16 +24104,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24211,13 +24211,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
@@ -24274,7 +24274,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24290,25 +24290,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>126.3942969708654</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24332,25 +24332,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>126.7882030360626</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G25" t="n">
         <v>167.9909793584588</v>
@@ -24411,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24445,22 +24445,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>328.2817459595876</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24493,10 +24493,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
@@ -24521,13 +24521,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>18.76535695272793</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24539,10 +24539,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24578,19 +24578,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="28">
@@ -24606,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24660,7 +24660,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24682,22 +24682,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>124.4792166637132</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24724,16 +24724,16 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>156.5945010984978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24745,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24779,10 +24779,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>86.05356964605838</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24809,25 +24809,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>22.56996778582104</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24931,7 +24931,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24970,22 +24970,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>115.4668728266929</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24995,22 +24995,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>49.65393615106372</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25049,19 +25049,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>81.80124353692524</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J34" t="n">
         <v>93.35918011667277</v>
@@ -25128,7 +25128,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25159,10 +25159,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25174,7 +25174,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>108.137662477717</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25198,19 +25198,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25219,10 +25219,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25244,13 +25244,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>89.74506185090959</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -25283,7 +25283,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -25295,13 +25295,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="37">
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H37" t="n">
         <v>162.2271725074396</v>
@@ -25377,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25390,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
@@ -25435,13 +25435,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>6.725383157348171</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -25456,10 +25456,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25469,16 +25469,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25493,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25523,22 +25523,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>135.1096871576</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="40">
@@ -25593,7 +25593,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>177.2933913771695</v>
@@ -25608,10 +25608,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>239.4980740029173</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25642,13 +25642,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>140.1318817691307</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25672,16 +25672,16 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>10.33136403017744</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>95.83746156275438</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25718,7 +25718,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25763,19 +25763,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="43">
@@ -25836,7 +25836,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25867,10 +25867,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25879,7 +25879,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25909,16 +25909,16 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>20.80116313523413</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25930,10 +25930,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>257.4021743712353</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25967,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -26000,7 +26000,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>175.8836868124217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>358671.2447770133</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>358671.2447770133</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>358671.2447770134</v>
+        <v>498541.5625390694</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>358671.2447770131</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>358671.2447770134</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390692</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498541.5625390694</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>498541.5625390694</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498541.5625390694</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498541.5625390694</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390692</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390692</v>
       </c>
     </row>
     <row r="16">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>65754.15294315932</v>
+        <v>91388.36989223279</v>
       </c>
       <c r="C2" t="n">
-        <v>65754.15294315931</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="D2" t="n">
-        <v>65754.15294315934</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="E2" t="n">
-        <v>65754.15294315931</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="F2" t="n">
-        <v>65754.15294315932</v>
+        <v>91388.36989223283</v>
       </c>
       <c r="G2" t="n">
-        <v>91388.36989223285</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="H2" t="n">
         <v>91388.36989223279</v>
@@ -26337,22 +26337,22 @@
         <v>91388.3698922328</v>
       </c>
       <c r="J2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="K2" t="n">
         <v>91388.36989223282</v>
       </c>
-      <c r="K2" t="n">
-        <v>91388.36989223279</v>
-      </c>
       <c r="L2" t="n">
+        <v>91388.36989223282</v>
+      </c>
+      <c r="M2" t="n">
+        <v>91388.36989223285</v>
+      </c>
+      <c r="N2" t="n">
         <v>91388.3698922328</v>
       </c>
-      <c r="M2" t="n">
-        <v>91388.36989223279</v>
-      </c>
-      <c r="N2" t="n">
-        <v>91388.36989223283</v>
-      </c>
       <c r="O2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="P2" t="n">
         <v>91388.3698922328</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14789.70600424422</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>53962.43490047232</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11546.91810999089</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47379.87821746379</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6026.749513840838</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="C4" t="n">
-        <v>6026.749513840838</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="D4" t="n">
-        <v>6026.749513840838</v>
+        <v>8547.111069342403</v>
       </c>
       <c r="E4" t="n">
-        <v>6026.749513840838</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="F4" t="n">
-        <v>6026.749513840838</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="G4" t="n">
         <v>8547.111069342402</v>
       </c>
       <c r="H4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="I4" t="n">
         <v>8547.111069342402</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8626.861344417164</v>
+        <v>-58427.45209245948</v>
       </c>
       <c r="C6" t="n">
-        <v>23416.56734866137</v>
+        <v>22341.97943908829</v>
       </c>
       <c r="D6" t="n">
-        <v>23416.5673486614</v>
+        <v>22341.97943908827</v>
       </c>
       <c r="E6" t="n">
-        <v>57044.16734866137</v>
+        <v>55969.57943908829</v>
       </c>
       <c r="F6" t="n">
-        <v>57044.16734866138</v>
+        <v>55969.57943908829</v>
       </c>
       <c r="G6" t="n">
-        <v>14225.15515865646</v>
+        <v>55969.57943908829</v>
       </c>
       <c r="H6" t="n">
-        <v>68187.59005912872</v>
+        <v>55969.57943908825</v>
       </c>
       <c r="I6" t="n">
-        <v>68187.59005912874</v>
+        <v>55969.57943908827</v>
       </c>
       <c r="J6" t="n">
-        <v>56640.67194913786</v>
+        <v>-7090.363160017963</v>
       </c>
       <c r="K6" t="n">
-        <v>68187.59005912872</v>
+        <v>55969.57943908829</v>
       </c>
       <c r="L6" t="n">
-        <v>68187.59005912874</v>
+        <v>55969.57943908829</v>
       </c>
       <c r="M6" t="n">
-        <v>68187.59005912872</v>
+        <v>55969.57943908831</v>
       </c>
       <c r="N6" t="n">
-        <v>68187.59005912876</v>
+        <v>55969.57943908827</v>
       </c>
       <c r="O6" t="n">
-        <v>20807.71184166495</v>
+        <v>55969.57943908828</v>
       </c>
       <c r="P6" t="n">
-        <v>68187.59005912874</v>
+        <v>55969.57943908827</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N2" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>42.34905430330016</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>42.34905430330018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>44.13217237922859</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>42.34905430330018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>42.34905430330018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>44.13217237922859</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q6" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>42.34905430330018</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O8" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O9" t="n">
-        <v>42.34905430330019</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>42.34905430330018</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>42.34905430330018</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O14" t="n">
-        <v>42.34905430330016</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>42.34905430330019</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35968,10 +35968,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
@@ -35983,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36135,7 +36135,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O20" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P20" t="n">
         <v>90.5657124162131</v>
@@ -36202,19 +36202,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N21" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O21" t="n">
-        <v>55.51629994036219</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36442,10 +36442,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
@@ -36676,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N27" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O27" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36916,22 +36916,22 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O30" t="n">
-        <v>217.7067518141195</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>161.1808241620674</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37627,19 +37627,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37791,7 +37791,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37861,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
+        <v>161.1784674257276</v>
+      </c>
+      <c r="N42" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N42" t="n">
-        <v>55.51629994036225</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -38098,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>99.81127712997396</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
@@ -38116,7 +38116,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_1_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_1_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>267779.7902310982</v>
+        <v>361972.0568565573</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514376</v>
+        <v>2114249.189782366</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006067</v>
+        <v>19492207.609564</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5764697.373081758</v>
+        <v>5117112.456859927</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>232.8330857361503</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>104.7383832473596</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -788,19 +788,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -867,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>133.186967585368</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -940,31 +940,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>28.88091821707973</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>79.32306705084065</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>38.87161743162454</v>
       </c>
     </row>
     <row r="7">
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>133.186967585368</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
     </row>
     <row r="8">
@@ -1135,13 +1135,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>28.88091821707973</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1177,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>121.67129183649</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,16 +1268,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T10" t="n">
-        <v>133.186967585368</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>28.88091821707974</v>
       </c>
       <c r="C11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>52.42556848774763</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1457,10 +1457,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>33.52910316901396</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1496,25 +1496,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="W13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1618,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>114.9581870864144</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,13 +1654,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>28.88091821707973</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1736,25 +1736,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>70.73885857389301</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="16">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1888,19 +1888,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="U17" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>30.58282315618644</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>65.13060206523731</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2080,67 +2080,67 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T20" t="n">
+        <v>3.265316057196634</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="G20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2171,13 +2171,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>111.7765806969846</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2207,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2225,10 +2225,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>55.6659517772089</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,73 +2317,73 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>230.2038249569697</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2447,25 +2447,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>124.906780124857</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="25">
@@ -2487,52 +2487,52 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>70.34400780127524</v>
+      </c>
+      <c r="G26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,13 +2602,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2699,10 +2699,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>134.667568689459</v>
       </c>
       <c r="Y27" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2718,16 +2718,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2794,22 +2794,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>230.2038249569697</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2836,13 +2836,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2888,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2918,25 +2918,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>210.2306193636042</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3043,16 +3043,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3076,19 +3076,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>202.2946864288972</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>241.0142888776591</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3107,16 +3107,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>85.68170746940429</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3158,25 +3158,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>118.3634851578964</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3280,16 +3280,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>102.3382270926889</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -3322,7 +3322,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>29.78216610882018</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3350,25 +3350,25 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>9.357836733174581</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3398,22 +3398,22 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3438,43 +3438,43 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3502,76 +3502,76 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>190.3453970742847</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
+      <c r="V38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X38" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>29.1427070647978</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -3647,10 +3647,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>29.05241763862477</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3720,10 +3720,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W40" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,19 +3787,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -3884,10 +3884,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y42" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3988,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
         <v>241.0142888776591</v>
@@ -4021,10 +4021,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>112.3289263072337</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>49.3111039422953</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4124,7 +4124,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="46">
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>953.9655401424092</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="C2" t="n">
-        <v>953.9655401424092</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D2" t="n">
-        <v>953.9655401424092</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E2" t="n">
-        <v>953.9655401424092</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F2" t="n">
-        <v>718.7806050553886</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G2" t="n">
-        <v>475.3318284112885</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H2" t="n">
-        <v>231.8830517671884</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>122.2961490211351</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L2" t="n">
-        <v>302.3720006057937</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M2" t="n">
-        <v>519.3476278686978</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N2" t="n">
-        <v>725.2021500759372</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O2" t="n">
-        <v>874.3971002185853</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P2" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V2" t="n">
-        <v>953.9655401424092</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W2" t="n">
-        <v>953.9655401424092</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X2" t="n">
-        <v>953.9655401424092</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y2" t="n">
-        <v>953.9655401424092</v>
+        <v>131.9507376187037</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>125.0774898247174</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M3" t="n">
-        <v>487.8483949674443</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="N3" t="n">
-        <v>726.4525409563269</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q3" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T3" t="n">
-        <v>588.4532163200711</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U3" t="n">
-        <v>360.2295980564601</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V3" t="n">
-        <v>125.0774898247174</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W3" t="n">
-        <v>125.0774898247174</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X3" t="n">
-        <v>125.0774898247174</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y3" t="n">
-        <v>125.0774898247174</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>262.7299197543128</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C5" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>122.2961490211351</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057937</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686978</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759372</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="T5" t="n">
-        <v>749.627473042513</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="U5" t="n">
-        <v>506.1786963984129</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="V5" t="n">
-        <v>506.1786963984129</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="W5" t="n">
-        <v>506.1786963984129</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X5" t="n">
-        <v>506.1786963984129</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y5" t="n">
-        <v>262.7299197543128</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>273.858482543704</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C6" t="n">
-        <v>99.40545326257703</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D6" t="n">
-        <v>99.40545326257703</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E6" t="n">
-        <v>99.40545326257703</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F6" t="n">
-        <v>99.40545326257703</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M6" t="n">
-        <v>383.2428491569326</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N6" t="n">
-        <v>621.8469951458151</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O6" t="n">
-        <v>860.4511411346975</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T6" t="n">
-        <v>689.4702815141908</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U6" t="n">
-        <v>689.4702815141908</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V6" t="n">
-        <v>689.4702815141908</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="W6" t="n">
-        <v>689.4702815141908</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="X6" t="n">
-        <v>481.618781308658</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="Y6" t="n">
-        <v>273.858482543704</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>262.7299197543128</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="C8" t="n">
-        <v>19.28114311021272</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>122.2961490211351</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L8" t="n">
-        <v>302.3720006057937</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M8" t="n">
-        <v>519.3476278686978</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759372</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185853</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P8" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="V8" t="n">
-        <v>749.627473042513</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="W8" t="n">
-        <v>506.1786963984129</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="X8" t="n">
-        <v>262.7299197543128</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="Y8" t="n">
-        <v>262.7299197543128</v>
+        <v>77.28117035226589</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>492.3847606029253</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C9" t="n">
-        <v>492.3847606029253</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D9" t="n">
-        <v>492.3847606029253</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E9" t="n">
-        <v>369.484465818592</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F9" t="n">
-        <v>222.9499078454769</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G9" t="n">
-        <v>222.9499078454769</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H9" t="n">
-        <v>109.5807722530562</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N9" t="n">
-        <v>725.4530095217538</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U9" t="n">
-        <v>735.8335372470253</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="V9" t="n">
-        <v>735.8335372470253</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="W9" t="n">
-        <v>492.3847606029253</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X9" t="n">
-        <v>492.3847606029253</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y9" t="n">
-        <v>492.3847606029253</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>802.5825927271064</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="C11" t="n">
-        <v>559.1338160830064</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="D11" t="n">
-        <v>315.6850394389064</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="E11" t="n">
-        <v>262.7299197543128</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F11" t="n">
-        <v>262.7299197543128</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K11" t="n">
-        <v>122.2961490211351</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L11" t="n">
-        <v>302.3720006057937</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M11" t="n">
-        <v>519.3476278686978</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N11" t="n">
-        <v>725.2021500759372</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O11" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P11" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R11" t="n">
-        <v>802.5825927271064</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S11" t="n">
-        <v>802.5825927271064</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="T11" t="n">
-        <v>802.5825927271064</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="U11" t="n">
-        <v>802.5825927271064</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="V11" t="n">
-        <v>802.5825927271064</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="W11" t="n">
-        <v>802.5825927271064</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="X11" t="n">
-        <v>802.5825927271064</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="Y11" t="n">
-        <v>802.5825927271064</v>
+        <v>121.8591222504766</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>212.3863790944702</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C12" t="n">
-        <v>212.3863790944702</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D12" t="n">
-        <v>212.3863790944702</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E12" t="n">
-        <v>53.14892408901471</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M12" t="n">
-        <v>613.2059550252818</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N12" t="n">
-        <v>781.4136778972854</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P12" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q12" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S12" t="n">
-        <v>790.6398109613051</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T12" t="n">
-        <v>588.4532163200711</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U12" t="n">
-        <v>588.4532163200711</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="V12" t="n">
-        <v>588.4532163200711</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="W12" t="n">
-        <v>588.4532163200711</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X12" t="n">
-        <v>380.6017161145382</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y12" t="n">
-        <v>380.6017161145382</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L13" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M13" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N13" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>591.4512093066566</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C14" t="n">
-        <v>591.4512093066566</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D14" t="n">
-        <v>591.4512093066566</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E14" t="n">
-        <v>591.4512093066566</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F14" t="n">
-        <v>475.3318284112885</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G14" t="n">
-        <v>231.8830517671884</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H14" t="n">
-        <v>231.8830517671884</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K14" t="n">
-        <v>122.2961490211351</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L14" t="n">
-        <v>302.3720006057937</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M14" t="n">
-        <v>519.3476278686978</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N14" t="n">
-        <v>725.2021500759372</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O14" t="n">
-        <v>874.3971002185853</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P14" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q14" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R14" t="n">
-        <v>802.5825927271064</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S14" t="n">
-        <v>591.4512093066566</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="T14" t="n">
-        <v>591.4512093066566</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="U14" t="n">
-        <v>591.4512093066566</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="V14" t="n">
-        <v>591.4512093066566</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W14" t="n">
-        <v>591.4512093066566</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X14" t="n">
-        <v>591.4512093066566</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y14" t="n">
-        <v>591.4512093066566</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M15" t="n">
-        <v>374.6018090363993</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N15" t="n">
-        <v>542.809531908403</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q15" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S15" t="n">
-        <v>892.6037630117544</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T15" t="n">
-        <v>690.4171683705204</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U15" t="n">
-        <v>462.1935501069094</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V15" t="n">
-        <v>227.0414418751666</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="W15" t="n">
-        <v>227.0414418751666</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X15" t="n">
-        <v>227.0414418751666</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="E16" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="F16" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="G16" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="H16" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="I16" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="J16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L16" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M16" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N16" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>4.329008585976936</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="C17" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="D17" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E17" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F17" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="G17" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C17" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D17" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E17" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="F17" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="G17" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>601.5428246748836</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T17" t="n">
-        <v>376.1934816808115</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U17" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V17" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W17" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X17" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>224.6259129531442</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>50.17288367201721</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>50.17288367201721</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>50.17288367201721</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>50.17288367201721</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>50.17288367201721</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>50.17288367201721</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5597,49 +5597,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>257.8852890990952</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N18" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U18" t="n">
-        <v>735.8335372470253</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V18" t="n">
-        <v>500.6814290152826</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="W18" t="n">
-        <v>434.8929420806995</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="X18" t="n">
-        <v>227.0414418751666</v>
+        <v>224.6259129531442</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>224.6259129531442</v>
       </c>
     </row>
     <row r="19">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U20" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V20" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W20" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>384.2867411876791</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>384.2867411876791</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>384.2867411876791</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>384.2867411876791</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
         <v>19.28114311021272</v>
@@ -5840,7 +5840,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
         <v>542.809531908403</v>
@@ -5855,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V21" t="n">
-        <v>627.7355178317791</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W21" t="n">
-        <v>384.2867411876791</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="X21" t="n">
-        <v>384.2867411876791</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y21" t="n">
-        <v>384.2867411876791</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5937,16 +5937,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>251.810259228364</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>251.810259228364</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>251.810259228364</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6019,22 +6019,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6095,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>588.4532163200711</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>353.3011080883284</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>227.1326433157456</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="25">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
         <v>19.28114311021272</v>
@@ -6180,19 +6180,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>953.9655401424092</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="C26" t="n">
-        <v>749.627473042513</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="D26" t="n">
-        <v>506.1786963984129</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="F26" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6250,28 +6250,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V26" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W26" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X26" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="Y26" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>374.6018090363993</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V27" t="n">
-        <v>500.6814290152826</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W27" t="n">
-        <v>257.2326523711826</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X27" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="28">
@@ -6366,13 +6366,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G28" t="n">
         <v>19.28114311021272</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>251.810259228364</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T29" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U29" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
         <v>19.28114311021272</v>
@@ -6545,19 +6545,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6566,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="T30" t="n">
-        <v>588.4532163200711</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U30" t="n">
-        <v>588.4532163200711</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V30" t="n">
-        <v>376.0990553467335</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W30" t="n">
-        <v>132.6502787026334</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X30" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y30" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6724,28 +6724,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T32" t="n">
-        <v>749.627473042513</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U32" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="V32" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W32" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X32" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="33">
@@ -6755,13 +6755,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>193.7341723913397</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E33" t="n">
         <v>19.28114311021272</v>
@@ -6791,13 +6791,13 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>613.2059550252818</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6806,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>844.4980795935692</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U33" t="n">
-        <v>844.4980795935692</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V33" t="n">
-        <v>609.3459713618265</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W33" t="n">
-        <v>609.3459713618265</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X33" t="n">
-        <v>401.4944711562937</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y33" t="n">
-        <v>193.7341723913397</v>
+        <v>588.4532163200711</v>
       </c>
     </row>
     <row r="34">
@@ -6888,7 +6888,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
         <v>19.28114311021272</v>
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>122.6530896684844</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="C35" t="n">
-        <v>122.6530896684844</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="D35" t="n">
-        <v>122.6530896684844</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="E35" t="n">
-        <v>122.6530896684844</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="F35" t="n">
-        <v>122.6530896684844</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G35" t="n">
-        <v>122.6530896684844</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H35" t="n">
-        <v>122.6530896684844</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6961,28 +6961,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>591.4512093066566</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T35" t="n">
-        <v>366.1018663125844</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U35" t="n">
-        <v>122.6530896684844</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="V35" t="n">
-        <v>122.6530896684844</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="W35" t="n">
-        <v>122.6530896684844</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="X35" t="n">
-        <v>122.6530896684844</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="Y35" t="n">
-        <v>122.6530896684844</v>
+        <v>487.4018176583718</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7025,16 +7025,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7046,22 +7046,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U36" t="n">
-        <v>735.8335372470253</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V36" t="n">
-        <v>500.6814290152826</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W36" t="n">
-        <v>257.2326523711826</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X36" t="n">
-        <v>49.38115216564972</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>518.4217842253022</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
         <v>19.28114311021272</v>
@@ -7122,25 +7122,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C38" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>223.6192102101089</v>
       </c>
     </row>
     <row r="39">
@@ -7256,16 +7256,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O39" t="n">
         <v>781.4136778972854</v>
@@ -7283,19 +7283,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>934.6200776674061</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>706.3964594037951</v>
       </c>
       <c r="V39" t="n">
-        <v>500.6814290152826</v>
+        <v>471.2443511720524</v>
       </c>
       <c r="W39" t="n">
-        <v>257.2326523711826</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="X39" t="n">
-        <v>49.38115216564972</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y39" t="n">
         <v>20.03527576299844</v>
@@ -7353,22 +7353,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
         <v>19.28114311021272</v>
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>333.7844730889342</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C41" t="n">
-        <v>333.7844730889342</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
-        <v>333.7844730889342</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E41" t="n">
-        <v>333.7844730889342</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F41" t="n">
-        <v>333.7844730889342</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G41" t="n">
-        <v>90.33569644483418</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>90.33569644483418</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
         <v>19.28114311021272</v>
@@ -7435,28 +7435,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>577.2332497330343</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U41" t="n">
-        <v>333.7844730889342</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V41" t="n">
-        <v>333.7844730889342</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W41" t="n">
-        <v>333.7844730889342</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X41" t="n">
-        <v>333.7844730889342</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y41" t="n">
-        <v>333.7844730889342</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="42">
@@ -7496,19 +7496,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7520,19 +7520,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U42" t="n">
-        <v>735.8335372470253</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V42" t="n">
-        <v>500.6814290152826</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W42" t="n">
-        <v>257.2326523711826</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X42" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y42" t="n">
         <v>19.28114311021272</v>
@@ -7593,19 +7593,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
         <v>19.28114311021272</v>
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C44" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D44" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E44" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F44" t="n">
         <v>262.7299197543128</v>
@@ -7669,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>601.5428246748836</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T44" t="n">
-        <v>376.1934816808115</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U44" t="n">
-        <v>376.1934816808115</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V44" t="n">
-        <v>376.1934816808115</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W44" t="n">
-        <v>376.1934816808115</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="X44" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7733,19 +7733,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M45" t="n">
-        <v>487.8483949674443</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N45" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7760,19 +7760,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>914.2479596093278</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>679.0958513775852</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W45" t="n">
-        <v>435.6470747334852</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X45" t="n">
-        <v>227.7955745279523</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="46">
@@ -7830,19 +7830,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
         <v>19.28114311021272</v>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8063,22 +8063,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O3" t="n">
-        <v>382.6009056104135</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>262.4389053482807</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>180.1904932776592</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P6" t="n">
-        <v>168.5314335381781</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>244.7225752110828</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711648</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>278.1154692732874</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,22 +8771,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>180.9034340831744</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N12" t="n">
-        <v>301.2485028631349</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,22 +9008,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>180.9034340831744</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N15" t="n">
-        <v>301.248502863135</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9245,16 +9245,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9488,10 +9488,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N21" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9956,16 +9956,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>301.248502863135</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10202,13 +10202,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>186.8580120236956</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10439,16 +10439,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O33" t="n">
-        <v>312.5030352242461</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10673,19 +10673,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,10 +10913,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11144,22 +11144,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11381,22 +11381,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M45" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>343.862224231856</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>321.1407193917789</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>310.5508692414544</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>174.0429600055611</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22600,7 +22600,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22628,7 +22628,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>67.9701157409561</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22676,19 +22676,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>161.2931112631971</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>188.6684147701967</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22755,19 +22755,19 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>90.82963045160423</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>183.8134170490529</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>285.7325478889088</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22786,10 +22786,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>321.1407193917789</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22828,31 +22828,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>283.6200860909063</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>320.3600505003333</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22865,7 +22865,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22877,7 +22877,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>58.02045011236999</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>188.6684147701967</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>166.8110783456798</v>
       </c>
     </row>
     <row r="7">
@@ -22995,13 +22995,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>94.75862184291347</v>
+        <v>183.8134170490529</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>208.0054709445994</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23010,7 +23010,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>217.7942029044125</v>
       </c>
     </row>
     <row r="8">
@@ -23023,13 +23023,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>325.8021234036032</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>337.7981976930332</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23065,13 +23065,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -23080,13 +23080,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23108,19 +23108,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>35.97378861891097</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23156,16 +23156,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>212.8233657292951</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>161.6408128242489</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23226,13 +23226,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T10" t="n">
-        <v>94.75862184291347</v>
+        <v>183.8134170490529</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>285.7325478889088</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>353.8529234464008</v>
       </c>
       <c r="C11" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>329.5048015845142</v>
+        <v>337.7981976930332</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23345,10 +23345,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>111.5401092243699</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
@@ -23384,25 +23384,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>188.6684147701967</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>212.8233657292951</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23463,22 +23463,22 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S13" t="n">
-        <v>224.0165980369723</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T13" t="n">
-        <v>227.9455894282815</v>
+        <v>183.8134170490529</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>251.3471928761457</v>
       </c>
       <c r="W13" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23506,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>291.917858655297</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23542,13 +23542,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>194.2149313470516</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23624,25 +23624,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>100.9443125299448</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>193.9289697178007</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>161.6408128242489</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>161.5505233980758</v>
       </c>
     </row>
     <row r="16">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23676,7 +23676,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>92.56872966899051</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -23709,16 +23709,16 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3190293564909</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>208.0054709445994</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>181.5774830098086</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23737,7 +23737,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23749,7 +23749,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
@@ -23776,19 +23776,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>170.6702810763838</v>
       </c>
       <c r="U17" t="n">
-        <v>139.0167266006028</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23813,7 +23813,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -23831,7 +23831,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>58.81380969522864</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>186.5643810956823</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>204.5813593128142</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24013,22 +24013,22 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>219.8305335069347</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24059,13 +24059,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>33.29263169639931</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -24095,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -24113,10 +24113,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>150.1070334262686</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24177,7 +24177,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>185.0989125581653</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24259,19 +24259,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24308,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24335,25 +24335,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>126.7882030360626</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="25">
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>167.9909793584588</v>
@@ -24420,7 +24420,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
-        <v>162.9782053421103</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>336.5320379404362</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24490,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
@@ -24545,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24587,10 +24587,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>71.10541651401849</v>
       </c>
       <c r="Y27" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24606,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H28" t="n">
         <v>162.2271725074396</v>
@@ -24682,10 +24682,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>124.4792166637132</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24694,10 +24694,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24724,13 +24724,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24776,7 +24776,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24806,25 +24806,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>70.35882518776062</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>22.56996778582104</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24931,16 +24931,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24964,19 +24964,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>20.80116313523413</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>160.9567151697601</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24995,16 +24995,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>80.85147618046305</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25046,25 +25046,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>81.80124353692524</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25128,10 +25128,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25168,16 +25168,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>108.137662477717</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>221.5634867990163</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25238,25 +25238,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>138.0872288314642</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25286,22 +25286,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H37" t="n">
         <v>162.2271725074396</v>
@@ -25362,7 +25362,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25399,13 +25399,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>224.9573404408503</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25414,7 +25414,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25447,19 +25447,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25523,7 +25523,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>171.0220216300238</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25535,10 +25535,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>176.6302781386796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25593,7 +25593,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
         <v>177.2933913771695</v>
@@ -25608,10 +25608,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W40" t="n">
-        <v>239.4980740029173</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25648,7 +25648,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>140.1318817691307</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25675,19 +25675,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25760,7 +25760,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25772,10 +25772,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y42" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25833,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25876,7 +25876,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
         <v>174.288448637476</v>
@@ -25909,10 +25909,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>257.4021743712353</v>
+        <v>358.5380445222895</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25967,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -26000,7 +26000,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>176.6302781386795</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="46">
@@ -26070,7 +26070,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>498541.5625390693</v>
+        <v>358671.2447770133</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>498541.5625390693</v>
+        <v>358671.2447770131</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>498541.5625390694</v>
+        <v>358671.2447770133</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>498541.5625390693</v>
+        <v>358671.2447770133</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>498541.5625390693</v>
+        <v>358671.2447770131</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498541.5625390692</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390692</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390692</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390694</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498541.5625390692</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>498541.5625390692</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="16">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>91388.36989223279</v>
+        <v>65754.15294315931</v>
       </c>
       <c r="C2" t="n">
+        <v>65754.15294315929</v>
+      </c>
+      <c r="D2" t="n">
+        <v>65754.15294315931</v>
+      </c>
+      <c r="E2" t="n">
+        <v>65754.15294315929</v>
+      </c>
+      <c r="F2" t="n">
+        <v>65754.15294315929</v>
+      </c>
+      <c r="G2" t="n">
+        <v>91388.36989223283</v>
+      </c>
+      <c r="H2" t="n">
         <v>91388.36989223282</v>
-      </c>
-      <c r="D2" t="n">
-        <v>91388.3698922328</v>
-      </c>
-      <c r="E2" t="n">
-        <v>91388.36989223282</v>
-      </c>
-      <c r="F2" t="n">
-        <v>91388.36989223283</v>
-      </c>
-      <c r="G2" t="n">
-        <v>91388.36989223282</v>
-      </c>
-      <c r="H2" t="n">
-        <v>91388.36989223279</v>
       </c>
       <c r="I2" t="n">
         <v>91388.3698922328</v>
@@ -26343,16 +26343,16 @@
         <v>91388.36989223282</v>
       </c>
       <c r="L2" t="n">
+        <v>91388.36989223283</v>
+      </c>
+      <c r="M2" t="n">
+        <v>91388.36989223283</v>
+      </c>
+      <c r="N2" t="n">
         <v>91388.36989223282</v>
       </c>
-      <c r="M2" t="n">
-        <v>91388.36989223285</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>91388.3698922328</v>
-      </c>
-      <c r="O2" t="n">
-        <v>91388.36989223282</v>
       </c>
       <c r="P2" t="n">
         <v>91388.3698922328</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>53962.43490047232</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>11546.91810999089</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47379.87821746379</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8547.111069342402</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="C4" t="n">
-        <v>8547.111069342402</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="D4" t="n">
-        <v>8547.111069342403</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="E4" t="n">
-        <v>8547.111069342402</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="F4" t="n">
-        <v>8547.111069342402</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="G4" t="n">
         <v>8547.111069342402</v>
@@ -26444,7 +26444,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="K4" t="n">
-        <v>8547.111069342402</v>
+        <v>8547.111069342403</v>
       </c>
       <c r="L4" t="n">
         <v>8547.111069342402</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>14653.66876376167</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="F5" t="n">
-        <v>14653.66876376167</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-58427.45209245948</v>
+        <v>7172.021946512436</v>
       </c>
       <c r="C6" t="n">
-        <v>22341.97943908829</v>
+        <v>21961.72795075664</v>
       </c>
       <c r="D6" t="n">
-        <v>22341.97943908827</v>
+        <v>21961.72795075665</v>
       </c>
       <c r="E6" t="n">
-        <v>55969.57943908829</v>
+        <v>55589.32795075663</v>
       </c>
       <c r="F6" t="n">
-        <v>55969.57943908829</v>
+        <v>55589.32795075663</v>
       </c>
       <c r="G6" t="n">
-        <v>55969.57943908829</v>
+        <v>13003.3540966524</v>
       </c>
       <c r="H6" t="n">
-        <v>55969.57943908825</v>
+        <v>66965.78899712471</v>
       </c>
       <c r="I6" t="n">
-        <v>55969.57943908827</v>
+        <v>66965.78899712469</v>
       </c>
       <c r="J6" t="n">
-        <v>-7090.363160017963</v>
+        <v>55418.8708871338</v>
       </c>
       <c r="K6" t="n">
-        <v>55969.57943908829</v>
+        <v>66965.78899712471</v>
       </c>
       <c r="L6" t="n">
-        <v>55969.57943908829</v>
+        <v>66965.78899712472</v>
       </c>
       <c r="M6" t="n">
-        <v>55969.57943908831</v>
+        <v>66965.78899712472</v>
       </c>
       <c r="N6" t="n">
-        <v>55969.57943908827</v>
+        <v>66965.78899712471</v>
       </c>
       <c r="O6" t="n">
-        <v>55969.57943908828</v>
+        <v>19585.9107796609</v>
       </c>
       <c r="P6" t="n">
-        <v>55969.57943908827</v>
+        <v>66965.78899712469</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655597</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153932</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34783,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O3" t="n">
-        <v>240.0046611659691</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P6" t="n">
-        <v>34.55702612384782</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153933</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>181.8947995804632</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N11" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P11" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M12" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N12" t="n">
-        <v>169.9067907798016</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L14" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M14" t="n">
-        <v>219.1673002655598</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153933</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N15" t="n">
-        <v>169.9067907798017</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35965,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35983,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36208,10 +36208,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N21" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36676,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>169.9067907798017</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36694,7 +36694,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
@@ -36922,13 +36922,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>55.51629994036225</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37159,16 +37159,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O33" t="n">
-        <v>169.9067907798016</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37393,19 +37393,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
@@ -37633,10 +37633,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37864,22 +37864,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38101,22 +38101,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
